--- a/Laptop.xlsx
+++ b/Laptop.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\위종인\OneDrive - 중앙대학교\바탕 화면\URcom\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\위종인\OneDrive - 중앙대학교\바탕 화면\urcom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05891598-F982-480B-BB0E-795A9B2194CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E623DDED-0EF3-453C-965A-001A1B2227C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="141">
   <si>
     <t>고성능 작업을 요구할 수록 가격/무게 등이 올라갈 수 밖에 없습니다.</t>
   </si>
@@ -238,14 +238,6 @@
   </si>
   <si>
     <t>https://link.coupang.com/a/bqa8OD</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>삼성 갤럭시북3 프로</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://link.coupang.com/a/bqbais</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -1019,6 +1011,99 @@
     <t>무게</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>image</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://urcom.co.kr/1.png</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://urcom.co.kr/2.png</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://urcom.co.kr/3.png</t>
+  </si>
+  <si>
+    <t>https://urcom.co.kr/4.png</t>
+  </si>
+  <si>
+    <t>https://urcom.co.kr/5.png</t>
+  </si>
+  <si>
+    <t>https://urcom.co.kr/6.png</t>
+  </si>
+  <si>
+    <t>https://urcom.co.kr/7.png</t>
+  </si>
+  <si>
+    <t>https://urcom.co.kr/8.png</t>
+  </si>
+  <si>
+    <t>https://urcom.co.kr/9.png</t>
+  </si>
+  <si>
+    <t>https://urcom.co.kr/10.png</t>
+  </si>
+  <si>
+    <t>https://urcom.co.kr/11.png</t>
+  </si>
+  <si>
+    <t>https://urcom.co.kr/12.png</t>
+  </si>
+  <si>
+    <t>https://urcom.co.kr/13.png</t>
+  </si>
+  <si>
+    <t>https://urcom.co.kr/14.png</t>
+  </si>
+  <si>
+    <t>https://urcom.co.kr/15.png</t>
+  </si>
+  <si>
+    <t>https://urcom.co.kr/16.png</t>
+  </si>
+  <si>
+    <t>https://urcom.co.kr/17.png</t>
+  </si>
+  <si>
+    <t>https://urcom.co.kr/18.png</t>
+  </si>
+  <si>
+    <t>https://urcom.co.kr/19.png</t>
+  </si>
+  <si>
+    <t>https://urcom.co.kr/20.png</t>
+  </si>
+  <si>
+    <t>https://urcom.co.kr/21.png</t>
+  </si>
+  <si>
+    <t>https://urcom.co.kr/22.png</t>
+  </si>
+  <si>
+    <t>https://urcom.co.kr/23.png</t>
+  </si>
+  <si>
+    <t>https://urcom.co.kr/24.png</t>
+  </si>
+  <si>
+    <t>https://urcom.co.kr/25.png</t>
+  </si>
+  <si>
+    <t>https://urcom.co.kr/26.png</t>
+  </si>
+  <si>
+    <t>https://urcom.co.kr/27.png</t>
+  </si>
+  <si>
+    <t>https://urcom.co.kr/28.png</t>
+  </si>
+  <si>
+    <t>https://urcom.co.kr/29.png</t>
+  </si>
 </sst>
 </file>
 
@@ -1027,7 +1112,7 @@
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1119,6 +1204,13 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1204,13 +1296,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1226,10 +1319,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1445,13 +1540,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AP999"/>
+  <dimension ref="A1:AP998"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AD8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Y1" sqref="Y1"/>
+      <selection pane="bottomRight" activeCell="AL25" sqref="AL25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1465,37 +1560,37 @@
         <v>12</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="H1" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="G1" s="14" t="s">
+      <c r="I1" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="J1" s="13" t="s">
         <v>96</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>98</v>
       </c>
       <c r="K1" s="13" t="s">
         <v>13</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="M1" s="13" t="s">
         <v>14</v>
@@ -1525,19 +1620,19 @@
         <v>22</v>
       </c>
       <c r="V1" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="W1" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="X1" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y1" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="W1" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="X1" s="12" t="s">
+      <c r="Z1" s="12" t="s">
         <v>102</v>
-      </c>
-      <c r="Y1" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="Z1" s="12" t="s">
-        <v>104</v>
       </c>
       <c r="AA1" s="13" t="s">
         <v>23</v>
@@ -1546,16 +1641,16 @@
         <v>10</v>
       </c>
       <c r="AC1" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD1" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE1" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="AD1" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="AE1" s="12" t="s">
-        <v>107</v>
-      </c>
       <c r="AF1" s="13" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AG1" s="3" t="s">
         <v>24</v>
@@ -1566,7 +1661,9 @@
       <c r="AI1" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="AJ1" s="3"/>
+      <c r="AJ1" s="3" t="s">
+        <v>111</v>
+      </c>
       <c r="AK1" s="3"/>
       <c r="AL1" s="3"/>
       <c r="AM1" s="3"/>
@@ -1669,7 +1766,7 @@
         <v>1</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AG2" s="3" t="s">
         <v>29</v>
@@ -1680,7 +1777,9 @@
       <c r="AI2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AJ2" s="3"/>
+      <c r="AJ2" s="15" t="s">
+        <v>112</v>
+      </c>
       <c r="AK2" s="3"/>
       <c r="AL2" s="3"/>
       <c r="AM2" s="3"/>
@@ -1780,7 +1879,7 @@
         <v>1</v>
       </c>
       <c r="AF3" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AG3" s="3" t="s">
         <v>29</v>
@@ -1791,7 +1890,9 @@
       <c r="AI3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AJ3" s="3"/>
+      <c r="AJ3" s="15" t="s">
+        <v>113</v>
+      </c>
       <c r="AK3" s="3"/>
       <c r="AL3" s="3"/>
       <c r="AM3" s="3"/>
@@ -1825,7 +1926,7 @@
         <v>2</v>
       </c>
       <c r="J4" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K4" s="3">
         <v>2</v>
@@ -1902,7 +2003,9 @@
       <c r="AI4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AJ4" s="3"/>
+      <c r="AJ4" s="15" t="s">
+        <v>114</v>
+      </c>
       <c r="AK4" s="3"/>
       <c r="AL4" s="3"/>
       <c r="AM4" s="3"/>
@@ -2013,14 +2116,16 @@
       <c r="AI5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AJ5" s="3"/>
+      <c r="AJ5" s="15" t="s">
+        <v>115</v>
+      </c>
       <c r="AK5" s="3"/>
       <c r="AL5" s="3"/>
       <c r="AM5" s="3"/>
     </row>
     <row r="6" spans="1:42" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B6" s="3">
         <v>1.24</v>
@@ -2113,7 +2218,7 @@
         <v>1</v>
       </c>
       <c r="AF6" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AG6" s="3" t="s">
         <v>38</v>
@@ -2124,14 +2229,16 @@
       <c r="AI6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AJ6" s="3"/>
+      <c r="AJ6" s="15" t="s">
+        <v>116</v>
+      </c>
       <c r="AK6" s="3"/>
       <c r="AL6" s="3"/>
       <c r="AM6" s="3"/>
     </row>
     <row r="7" spans="1:42" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B7" s="3">
         <v>1.29</v>
@@ -2235,7 +2342,9 @@
       <c r="AI7" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AJ7" s="3"/>
+      <c r="AJ7" s="15" t="s">
+        <v>117</v>
+      </c>
       <c r="AK7" s="3"/>
       <c r="AL7" s="3"/>
       <c r="AM7" s="3"/>
@@ -2335,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="AF8" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AG8" s="3" t="s">
         <v>29</v>
@@ -2346,7 +2455,9 @@
       <c r="AI8" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AJ8" s="3"/>
+      <c r="AJ8" s="15" t="s">
+        <v>118</v>
+      </c>
       <c r="AK8" s="3"/>
       <c r="AL8" s="3"/>
       <c r="AM8" s="3"/>
@@ -2457,7 +2568,9 @@
       <c r="AI9" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AJ9" s="3"/>
+      <c r="AJ9" s="15" t="s">
+        <v>119</v>
+      </c>
       <c r="AK9" s="3"/>
       <c r="AL9" s="3"/>
       <c r="AM9" s="3"/>
@@ -2568,7 +2681,9 @@
       <c r="AI10" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AJ10" s="3"/>
+      <c r="AJ10" s="15" t="s">
+        <v>120</v>
+      </c>
       <c r="AK10" s="3"/>
       <c r="AL10" s="3"/>
       <c r="AM10" s="3"/>
@@ -2679,7 +2794,9 @@
       <c r="AI11" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AJ11" s="3"/>
+      <c r="AJ11" s="15" t="s">
+        <v>121</v>
+      </c>
       <c r="AK11" s="3"/>
       <c r="AL11" s="3"/>
       <c r="AM11" s="3"/>
@@ -2790,7 +2907,9 @@
       <c r="AI12" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AJ12" s="3"/>
+      <c r="AJ12" s="15" t="s">
+        <v>122</v>
+      </c>
       <c r="AK12" s="3"/>
       <c r="AL12" s="3"/>
       <c r="AM12" s="3"/>
@@ -2901,17 +3020,19 @@
       <c r="AI13" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AJ13" s="3"/>
+      <c r="AJ13" s="15" t="s">
+        <v>123</v>
+      </c>
       <c r="AK13" s="3"/>
       <c r="AL13" s="3"/>
       <c r="AM13" s="3"/>
     </row>
-    <row r="14" spans="1:42" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:42" s="9" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>53</v>
       </c>
       <c r="B14" s="3">
-        <v>1.17</v>
+        <v>1.56</v>
       </c>
       <c r="C14" s="3">
         <v>2</v>
@@ -2920,7 +3041,7 @@
         <v>2</v>
       </c>
       <c r="E14" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14" s="3">
         <v>1</v>
@@ -2929,31 +3050,31 @@
         <v>1</v>
       </c>
       <c r="H14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J14" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K14" s="3">
         <v>2</v>
       </c>
       <c r="L14" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M14" s="3">
         <v>1</v>
       </c>
       <c r="N14" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
       <c r="P14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -2962,7 +3083,7 @@
         <v>2</v>
       </c>
       <c r="S14" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T14" s="3">
         <v>1</v>
@@ -2977,13 +3098,13 @@
         <v>1</v>
       </c>
       <c r="X14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA14" s="3">
         <v>1</v>
@@ -3001,28 +3122,30 @@
         <v>1</v>
       </c>
       <c r="AF14" s="3" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="AG14" s="3" t="s">
         <v>29</v>
       </c>
       <c r="AH14" s="11">
-        <v>1449000</v>
+        <v>1799000</v>
       </c>
       <c r="AI14" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AJ14" s="3"/>
+      <c r="AJ14" s="15" t="s">
+        <v>124</v>
+      </c>
       <c r="AK14" s="3"/>
       <c r="AL14" s="3"/>
       <c r="AM14" s="3"/>
     </row>
-    <row r="15" spans="1:42" s="9" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:42" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>55</v>
       </c>
       <c r="B15" s="3">
-        <v>1.56</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="C15" s="3">
         <v>2</v>
@@ -3094,7 +3217,7 @@
         <v>1</v>
       </c>
       <c r="Z15" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA15" s="3">
         <v>1</v>
@@ -3112,18 +3235,20 @@
         <v>1</v>
       </c>
       <c r="AF15" s="3" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="AG15" s="3" t="s">
         <v>29</v>
       </c>
       <c r="AH15" s="11">
-        <v>1799000</v>
+        <v>1669000</v>
       </c>
       <c r="AI15" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AJ15" s="3"/>
+      <c r="AJ15" s="15" t="s">
+        <v>125</v>
+      </c>
       <c r="AK15" s="3"/>
       <c r="AL15" s="3"/>
       <c r="AM15" s="3"/>
@@ -3133,7 +3258,7 @@
         <v>57</v>
       </c>
       <c r="B16" s="3">
-        <v>1.1200000000000001</v>
+        <v>1.25</v>
       </c>
       <c r="C16" s="3">
         <v>2</v>
@@ -3154,7 +3279,7 @@
         <v>1</v>
       </c>
       <c r="I16" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J16" s="3">
         <v>1</v>
@@ -3166,7 +3291,7 @@
         <v>2</v>
       </c>
       <c r="M16" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16" s="3">
         <v>2</v>
@@ -3205,7 +3330,7 @@
         <v>1</v>
       </c>
       <c r="Z16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA16" s="3">
         <v>1</v>
@@ -3229,22 +3354,24 @@
         <v>29</v>
       </c>
       <c r="AH16" s="11">
-        <v>1669000</v>
+        <v>1780950</v>
       </c>
       <c r="AI16" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AJ16" s="3"/>
+      <c r="AJ16" s="15" t="s">
+        <v>126</v>
+      </c>
       <c r="AK16" s="3"/>
       <c r="AL16" s="3"/>
       <c r="AM16" s="3"/>
     </row>
-    <row r="17" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:40" s="9" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B17" s="3">
-        <v>1.25</v>
+        <v>1.7</v>
       </c>
       <c r="C17" s="3">
         <v>2</v>
@@ -3253,7 +3380,7 @@
         <v>2</v>
       </c>
       <c r="E17" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17" s="3">
         <v>1</v>
@@ -3262,7 +3389,7 @@
         <v>1</v>
       </c>
       <c r="H17" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" s="3">
         <v>1</v>
@@ -3271,22 +3398,22 @@
         <v>1</v>
       </c>
       <c r="K17" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L17" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M17" s="3">
         <v>0</v>
       </c>
       <c r="N17" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O17" s="3">
         <v>0</v>
       </c>
       <c r="P17" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="3">
         <v>0</v>
@@ -3316,7 +3443,7 @@
         <v>1</v>
       </c>
       <c r="Z17" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA17" s="3">
         <v>1</v>
@@ -3325,37 +3452,40 @@
         <v>1</v>
       </c>
       <c r="AC17" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD17" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="3">
         <v>1</v>
       </c>
       <c r="AF17" s="3" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="AG17" s="3" t="s">
         <v>29</v>
       </c>
       <c r="AH17" s="11">
-        <v>1780950</v>
+        <v>894000</v>
       </c>
       <c r="AI17" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="AJ17" s="3"/>
+      <c r="AJ17" s="15" t="s">
+        <v>127</v>
+      </c>
       <c r="AK17" s="3"/>
       <c r="AL17" s="3"/>
       <c r="AM17" s="3"/>
-    </row>
-    <row r="18" spans="1:40" s="9" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AN17"/>
+    </row>
+    <row r="18" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>61</v>
       </c>
       <c r="B18" s="3">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="C18" s="3">
         <v>2</v>
@@ -3382,10 +3512,10 @@
         <v>1</v>
       </c>
       <c r="K18" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L18" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M18" s="3">
         <v>0</v>
@@ -3397,10 +3527,10 @@
         <v>0</v>
       </c>
       <c r="P18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18" s="3">
         <v>2</v>
@@ -3421,13 +3551,13 @@
         <v>1</v>
       </c>
       <c r="X18" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y18" s="3">
         <v>1</v>
       </c>
       <c r="Z18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA18" s="3">
         <v>1</v>
@@ -3439,10 +3569,10 @@
         <v>0</v>
       </c>
       <c r="AD18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE18" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF18" s="3" t="s">
         <v>28</v>
@@ -3451,23 +3581,24 @@
         <v>29</v>
       </c>
       <c r="AH18" s="11">
-        <v>894000</v>
+        <v>994000</v>
       </c>
       <c r="AI18" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="AJ18" s="3"/>
+      <c r="AJ18" s="15" t="s">
+        <v>128</v>
+      </c>
       <c r="AK18" s="3"/>
       <c r="AL18" s="3"/>
       <c r="AM18" s="3"/>
-      <c r="AN18"/>
-    </row>
-    <row r="19" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:40" s="10" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>63</v>
       </c>
       <c r="B19" s="3">
-        <v>1.64</v>
+        <v>0.97</v>
       </c>
       <c r="C19" s="3">
         <v>2</v>
@@ -3494,25 +3625,25 @@
         <v>1</v>
       </c>
       <c r="K19" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L19" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M19" s="3">
         <v>0</v>
       </c>
       <c r="N19" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O19" s="3">
         <v>0</v>
       </c>
       <c r="P19" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R19" s="3">
         <v>2</v>
@@ -3527,19 +3658,19 @@
         <v>0</v>
       </c>
       <c r="V19" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W19" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X19" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y19" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA19" s="3">
         <v>1</v>
@@ -3554,31 +3685,34 @@
         <v>1</v>
       </c>
       <c r="AE19" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF19" s="3" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="AG19" s="3" t="s">
         <v>29</v>
       </c>
       <c r="AH19" s="11">
-        <v>994000</v>
+        <v>1151850</v>
       </c>
       <c r="AI19" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AJ19" s="3"/>
+      <c r="AJ19" s="15" t="s">
+        <v>129</v>
+      </c>
       <c r="AK19" s="3"/>
       <c r="AL19" s="3"/>
       <c r="AM19" s="3"/>
-    </row>
-    <row r="20" spans="1:40" s="10" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AN19"/>
+    </row>
+    <row r="20" spans="1:40" s="9" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>65</v>
       </c>
       <c r="B20" s="3">
-        <v>0.97</v>
+        <v>2</v>
       </c>
       <c r="C20" s="3">
         <v>2</v>
@@ -3587,43 +3721,43 @@
         <v>2</v>
       </c>
       <c r="E20" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G20" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J20" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K20" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M20" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N20" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q20" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R20" s="3">
         <v>2</v>
@@ -3635,16 +3769,16 @@
         <v>1</v>
       </c>
       <c r="U20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X20" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y20" s="3">
         <v>0</v>
@@ -3662,35 +3796,37 @@
         <v>0</v>
       </c>
       <c r="AD20" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="3">
         <v>1</v>
       </c>
       <c r="AF20" s="3" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="AG20" s="3" t="s">
         <v>29</v>
       </c>
       <c r="AH20" s="11">
-        <v>1151850</v>
+        <v>1336210</v>
       </c>
       <c r="AI20" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AJ20" s="3"/>
+      <c r="AJ20" s="15" t="s">
+        <v>130</v>
+      </c>
       <c r="AK20" s="3"/>
       <c r="AL20" s="3"/>
       <c r="AM20" s="3"/>
       <c r="AN20"/>
     </row>
-    <row r="21" spans="1:40" s="9" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>67</v>
       </c>
       <c r="B21" s="3">
-        <v>2</v>
+        <v>1.58</v>
       </c>
       <c r="C21" s="3">
         <v>2</v>
@@ -3699,58 +3835,58 @@
         <v>2</v>
       </c>
       <c r="E21" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G21" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H21" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J21" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L21" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M21" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N21" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O21" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P21" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R21" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S21" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T21" s="3">
         <v>1</v>
       </c>
       <c r="U21" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V21" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W21" s="3">
         <v>1</v>
@@ -3768,7 +3904,7 @@
         <v>1</v>
       </c>
       <c r="AB21" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC21" s="3">
         <v>0</v>
@@ -3777,7 +3913,7 @@
         <v>0</v>
       </c>
       <c r="AE21" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF21" s="3" t="s">
         <v>28</v>
@@ -3786,23 +3922,24 @@
         <v>29</v>
       </c>
       <c r="AH21" s="11">
-        <v>1336210</v>
+        <v>484000</v>
       </c>
       <c r="AI21" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="AJ21" s="3"/>
+      <c r="AJ21" s="15" t="s">
+        <v>131</v>
+      </c>
       <c r="AK21" s="3"/>
       <c r="AL21" s="3"/>
       <c r="AM21" s="3"/>
-      <c r="AN21"/>
-    </row>
-    <row r="22" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:40" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>69</v>
       </c>
       <c r="B22" s="3">
-        <v>1.58</v>
+        <v>1.89</v>
       </c>
       <c r="C22" s="3">
         <v>2</v>
@@ -3814,7 +3951,7 @@
         <v>1</v>
       </c>
       <c r="F22" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" s="3">
         <v>1</v>
@@ -3826,16 +3963,16 @@
         <v>1</v>
       </c>
       <c r="J22" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L22" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22" s="3">
         <v>1</v>
@@ -3850,10 +3987,10 @@
         <v>0</v>
       </c>
       <c r="R22" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S22" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T22" s="3">
         <v>1</v>
@@ -3862,7 +3999,7 @@
         <v>0</v>
       </c>
       <c r="V22" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22" s="3">
         <v>1</v>
@@ -3871,7 +4008,7 @@
         <v>0</v>
       </c>
       <c r="Y22" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z22" s="3">
         <v>0</v>
@@ -3880,7 +4017,7 @@
         <v>1</v>
       </c>
       <c r="AB22" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC22" s="3">
         <v>0</v>
@@ -3898,22 +4035,24 @@
         <v>29</v>
       </c>
       <c r="AH22" s="11">
-        <v>484000</v>
-      </c>
-      <c r="AI22" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="AJ22" s="3"/>
+        <v>642170</v>
+      </c>
+      <c r="AI22" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="AJ22" s="15" t="s">
+        <v>132</v>
+      </c>
       <c r="AK22" s="3"/>
       <c r="AL22" s="3"/>
       <c r="AM22" s="3"/>
     </row>
-    <row r="23" spans="1:40" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="B23" s="3">
-        <v>1.89</v>
+        <v>1.65</v>
       </c>
       <c r="C23" s="3">
         <v>2</v>
@@ -3925,10 +4064,10 @@
         <v>1</v>
       </c>
       <c r="F23" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" s="3">
         <v>0</v>
@@ -3937,19 +4076,19 @@
         <v>1</v>
       </c>
       <c r="J23" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L23" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M23" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N23" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O23" s="3">
         <v>0</v>
@@ -3961,19 +4100,19 @@
         <v>0</v>
       </c>
       <c r="R23" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S23" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T23" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U23" s="3">
         <v>0</v>
       </c>
       <c r="V23" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W23" s="3">
         <v>1</v>
@@ -4009,22 +4148,24 @@
         <v>29</v>
       </c>
       <c r="AH23" s="11">
-        <v>642170</v>
-      </c>
-      <c r="AI23" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="AJ23" s="3"/>
+        <v>509000</v>
+      </c>
+      <c r="AI23" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ23" s="15" t="s">
+        <v>133</v>
+      </c>
       <c r="AK23" s="3"/>
       <c r="AL23" s="3"/>
       <c r="AM23" s="3"/>
     </row>
     <row r="24" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B24" s="3">
-        <v>1.65</v>
+        <v>2.31</v>
       </c>
       <c r="C24" s="3">
         <v>2</v>
@@ -4033,64 +4174,64 @@
         <v>2</v>
       </c>
       <c r="E24" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G24" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H24" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J24" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K24" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L24" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M24" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N24" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O24" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P24" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q24" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R24" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S24" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T24" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U24" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V24" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W24" s="3">
         <v>1</v>
       </c>
       <c r="X24" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y24" s="3">
         <v>1</v>
@@ -4120,22 +4261,24 @@
         <v>29</v>
       </c>
       <c r="AH24" s="11">
-        <v>509000</v>
-      </c>
-      <c r="AI24" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="AJ24" s="3"/>
+        <v>1649000</v>
+      </c>
+      <c r="AI24" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="AJ24" s="15" t="s">
+        <v>134</v>
+      </c>
       <c r="AK24" s="3"/>
       <c r="AL24" s="3"/>
       <c r="AM24" s="3"/>
     </row>
     <row r="25" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B25" s="3">
-        <v>2.31</v>
+        <v>1.2</v>
       </c>
       <c r="C25" s="3">
         <v>2</v>
@@ -4144,16 +4287,16 @@
         <v>2</v>
       </c>
       <c r="E25" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G25" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H25" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" s="3">
         <v>2</v>
@@ -4165,22 +4308,22 @@
         <v>2</v>
       </c>
       <c r="L25" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M25" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N25" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O25" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P25" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q25" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R25" s="3">
         <v>2</v>
@@ -4189,10 +4332,10 @@
         <v>2</v>
       </c>
       <c r="T25" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U25" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V25" s="3">
         <v>1</v>
@@ -4216,13 +4359,13 @@
         <v>1</v>
       </c>
       <c r="AC25" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD25" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE25" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF25" s="3" t="s">
         <v>28</v>
@@ -4231,22 +4374,24 @@
         <v>29</v>
       </c>
       <c r="AH25" s="11">
-        <v>1649000</v>
+        <v>1385000</v>
       </c>
       <c r="AI25" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="AJ25" s="3"/>
+        <v>74</v>
+      </c>
+      <c r="AJ25" s="15" t="s">
+        <v>135</v>
+      </c>
       <c r="AK25" s="3"/>
       <c r="AL25" s="3"/>
       <c r="AM25" s="3"/>
     </row>
-    <row r="26" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:40" ht="15" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>75</v>
       </c>
       <c r="B26" s="3">
-        <v>1.2</v>
+        <v>2.35</v>
       </c>
       <c r="C26" s="3">
         <v>2</v>
@@ -4255,43 +4400,43 @@
         <v>2</v>
       </c>
       <c r="E26" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G26" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H26" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26" s="3">
         <v>2</v>
       </c>
       <c r="J26" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K26" s="3">
         <v>2</v>
       </c>
       <c r="L26" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M26" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N26" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O26" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P26" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q26" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R26" s="3">
         <v>2</v>
@@ -4300,10 +4445,10 @@
         <v>2</v>
       </c>
       <c r="T26" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U26" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V26" s="3">
         <v>1</v>
@@ -4327,13 +4472,13 @@
         <v>1</v>
       </c>
       <c r="AC26" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD26" s="3">
         <v>1</v>
       </c>
       <c r="AE26" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF26" s="3" t="s">
         <v>28</v>
@@ -4342,22 +4487,24 @@
         <v>29</v>
       </c>
       <c r="AH26" s="11">
-        <v>1385000</v>
+        <v>1783860</v>
       </c>
       <c r="AI26" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="AJ26" s="3"/>
+      <c r="AJ26" s="15" t="s">
+        <v>136</v>
+      </c>
       <c r="AK26" s="3"/>
       <c r="AL26" s="3"/>
       <c r="AM26" s="3"/>
     </row>
-    <row r="27" spans="1:40" ht="15" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>77</v>
       </c>
       <c r="B27" s="3">
-        <v>2.35</v>
+        <v>1.51</v>
       </c>
       <c r="C27" s="3">
         <v>2</v>
@@ -4366,43 +4513,43 @@
         <v>2</v>
       </c>
       <c r="E27" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G27" s="3">
         <v>2</v>
       </c>
       <c r="H27" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" s="3">
         <v>2</v>
       </c>
       <c r="J27" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K27" s="3">
         <v>2</v>
       </c>
       <c r="L27" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M27" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N27" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O27" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P27" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R27" s="3">
         <v>2</v>
@@ -4411,16 +4558,16 @@
         <v>2</v>
       </c>
       <c r="T27" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U27" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V27" s="3">
         <v>1</v>
       </c>
       <c r="W27" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X27" s="3">
         <v>1</v>
@@ -4438,37 +4585,39 @@
         <v>1</v>
       </c>
       <c r="AC27" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD27" s="3">
         <v>1</v>
       </c>
       <c r="AE27" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF27" s="3" t="s">
         <v>28</v>
       </c>
       <c r="AG27" s="3" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="AH27" s="11">
-        <v>1783860</v>
-      </c>
-      <c r="AI27" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="AJ27" s="3"/>
+        <v>1753500</v>
+      </c>
+      <c r="AI27" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ27" s="15" t="s">
+        <v>137</v>
+      </c>
       <c r="AK27" s="3"/>
       <c r="AL27" s="3"/>
       <c r="AM27" s="3"/>
     </row>
     <row r="28" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B28" s="3">
-        <v>1.51</v>
+        <v>1.55</v>
       </c>
       <c r="C28" s="3">
         <v>2</v>
@@ -4477,10 +4626,10 @@
         <v>2</v>
       </c>
       <c r="E28" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F28" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G28" s="3">
         <v>2</v>
@@ -4492,7 +4641,7 @@
         <v>2</v>
       </c>
       <c r="J28" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K28" s="3">
         <v>2</v>
@@ -4531,7 +4680,7 @@
         <v>1</v>
       </c>
       <c r="W28" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X28" s="3">
         <v>1</v>
@@ -4543,7 +4692,7 @@
         <v>0</v>
       </c>
       <c r="AA28" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB28" s="3">
         <v>1</v>
@@ -4558,28 +4707,30 @@
         <v>1</v>
       </c>
       <c r="AF28" s="3" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="AG28" s="3" t="s">
         <v>38</v>
       </c>
       <c r="AH28" s="11">
-        <v>1753500</v>
-      </c>
-      <c r="AI28" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="AJ28" s="3"/>
+        <v>2704300</v>
+      </c>
+      <c r="AI28" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ28" s="15" t="s">
+        <v>138</v>
+      </c>
       <c r="AK28" s="3"/>
       <c r="AL28" s="3"/>
       <c r="AM28" s="3"/>
     </row>
-    <row r="29" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:40" ht="15" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B29" s="3">
-        <v>1.55</v>
+        <v>2.7</v>
       </c>
       <c r="C29" s="3">
         <v>2</v>
@@ -4597,7 +4748,7 @@
         <v>2</v>
       </c>
       <c r="H29" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" s="3">
         <v>2</v>
@@ -4609,22 +4760,22 @@
         <v>2</v>
       </c>
       <c r="L29" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M29" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N29" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O29" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P29" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q29" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R29" s="3">
         <v>2</v>
@@ -4633,10 +4784,10 @@
         <v>2</v>
       </c>
       <c r="T29" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U29" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V29" s="3">
         <v>1</v>
@@ -4654,43 +4805,45 @@
         <v>0</v>
       </c>
       <c r="AA29" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB29" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC29" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD29" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE29" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF29" s="3" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="AG29" s="3" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="AH29" s="11">
-        <v>2704300</v>
-      </c>
-      <c r="AI29" s="3" t="s">
+        <v>1929000</v>
+      </c>
+      <c r="AI29" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="AJ29" s="3"/>
+      <c r="AJ29" s="15" t="s">
+        <v>139</v>
+      </c>
       <c r="AK29" s="3"/>
       <c r="AL29" s="3"/>
       <c r="AM29" s="3"/>
     </row>
-    <row r="30" spans="1:40" ht="15" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B30" s="3">
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
       <c r="C30" s="3">
         <v>2</v>
@@ -4699,43 +4852,43 @@
         <v>2</v>
       </c>
       <c r="E30" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F30" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G30" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H30" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" s="3">
         <v>2</v>
       </c>
       <c r="J30" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K30" s="3">
         <v>2</v>
       </c>
       <c r="L30" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M30" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N30" s="3">
         <v>2</v>
       </c>
       <c r="O30" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P30" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q30" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R30" s="3">
         <v>2</v>
@@ -4744,13 +4897,13 @@
         <v>2</v>
       </c>
       <c r="T30" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U30" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V30" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W30" s="3">
         <v>1</v>
@@ -4768,7 +4921,7 @@
         <v>1</v>
       </c>
       <c r="AB30" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC30" s="3">
         <v>0</v>
@@ -4777,131 +4930,63 @@
         <v>0</v>
       </c>
       <c r="AE30" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF30" s="3" t="s">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="AG30" s="3" t="s">
         <v>29</v>
       </c>
       <c r="AH30" s="11">
-        <v>1929000</v>
-      </c>
-      <c r="AI30" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AJ30" s="3"/>
+        <v>924000</v>
+      </c>
+      <c r="AI30" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ30" s="15" t="s">
+        <v>140</v>
+      </c>
       <c r="AK30" s="3"/>
       <c r="AL30" s="3"/>
       <c r="AM30" s="3"/>
     </row>
     <row r="31" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B31" s="3">
-        <v>1.6</v>
-      </c>
-      <c r="C31" s="3">
-        <v>2</v>
-      </c>
-      <c r="D31" s="3">
-        <v>2</v>
-      </c>
-      <c r="E31" s="3">
-        <v>1</v>
-      </c>
-      <c r="F31" s="3">
-        <v>1</v>
-      </c>
-      <c r="G31" s="3">
-        <v>1</v>
-      </c>
-      <c r="H31" s="3">
-        <v>0</v>
-      </c>
-      <c r="I31" s="3">
-        <v>2</v>
-      </c>
-      <c r="J31" s="3">
-        <v>0</v>
-      </c>
-      <c r="K31" s="3">
-        <v>2</v>
-      </c>
-      <c r="L31" s="3">
-        <v>1</v>
-      </c>
-      <c r="M31" s="3">
-        <v>1</v>
-      </c>
-      <c r="N31" s="3">
-        <v>2</v>
-      </c>
-      <c r="O31" s="3">
-        <v>0</v>
-      </c>
-      <c r="P31" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="3">
-        <v>0</v>
-      </c>
-      <c r="R31" s="3">
-        <v>2</v>
-      </c>
-      <c r="S31" s="3">
-        <v>2</v>
-      </c>
-      <c r="T31" s="3">
-        <v>1</v>
-      </c>
-      <c r="U31" s="3">
-        <v>0</v>
-      </c>
-      <c r="V31" s="3">
-        <v>0</v>
-      </c>
-      <c r="W31" s="3">
-        <v>1</v>
-      </c>
-      <c r="X31" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y31" s="3">
-        <v>1</v>
-      </c>
-      <c r="Z31" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA31" s="3">
-        <v>1</v>
-      </c>
-      <c r="AB31" s="3">
-        <v>1</v>
-      </c>
-      <c r="AC31" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD31" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE31" s="3">
-        <v>1</v>
-      </c>
-      <c r="AF31" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="AG31" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AH31" s="11">
-        <v>924000</v>
-      </c>
-      <c r="AI31" s="3" t="s">
-        <v>92</v>
-      </c>
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="3"/>
+      <c r="W31" s="3"/>
+      <c r="X31" s="3"/>
+      <c r="Y31" s="3"/>
+      <c r="Z31" s="3"/>
+      <c r="AA31" s="3"/>
+      <c r="AB31" s="3"/>
+      <c r="AC31" s="3"/>
+      <c r="AD31" s="3"/>
+      <c r="AE31" s="3"/>
+      <c r="AF31" s="3"/>
+      <c r="AG31" s="3"/>
+      <c r="AH31" s="3"/>
+      <c r="AI31" s="3"/>
       <c r="AJ31" s="3"/>
       <c r="AK31" s="3"/>
       <c r="AL31" s="3"/>
@@ -5113,45 +5198,13 @@
       <c r="AM36" s="3"/>
     </row>
     <row r="37" spans="1:39" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
-      <c r="O37" s="3"/>
-      <c r="P37" s="3"/>
-      <c r="Q37" s="3"/>
-      <c r="R37" s="3"/>
-      <c r="S37" s="3"/>
-      <c r="T37" s="3"/>
-      <c r="U37" s="3"/>
-      <c r="V37" s="3"/>
-      <c r="W37" s="3"/>
-      <c r="X37" s="3"/>
-      <c r="Y37" s="3"/>
-      <c r="Z37" s="3"/>
-      <c r="AA37" s="3"/>
-      <c r="AB37" s="3"/>
-      <c r="AC37" s="3"/>
-      <c r="AD37" s="3"/>
-      <c r="AE37" s="3"/>
+      <c r="A37" s="2"/>
+      <c r="C37" s="4"/>
+      <c r="V37" s="4"/>
+      <c r="AE37" s="2"/>
       <c r="AF37" s="3"/>
       <c r="AG37" s="3"/>
-      <c r="AH37" s="3"/>
-      <c r="AI37" s="3"/>
-      <c r="AJ37" s="3"/>
-      <c r="AK37" s="3"/>
-      <c r="AL37" s="3"/>
-      <c r="AM37" s="3"/>
+      <c r="AH37" s="5"/>
     </row>
     <row r="38" spans="1:39" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
@@ -13802,22 +13855,13 @@
       <c r="AG998" s="3"/>
       <c r="AH998" s="5"/>
     </row>
-    <row r="999" spans="1:34" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A999" s="2"/>
-      <c r="C999" s="4"/>
-      <c r="V999" s="4"/>
-      <c r="AE999" s="2"/>
-      <c r="AF999" s="3"/>
-      <c r="AG999" s="3"/>
-      <c r="AH999" s="5"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AF2:AF999" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AF2:AF998" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"13~14인치,15~16인치,17 인치 이상"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AG2:AG999" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AG2:AG998" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"window,mac"</formula1>
     </dataValidation>
   </dataValidations>
@@ -13834,20 +13878,55 @@
     <hyperlink ref="AI11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
     <hyperlink ref="AI12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
     <hyperlink ref="AI13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="AI14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="AI15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="AI16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="AI17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="AI20" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="AI21" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="AI22" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="AI19" r:id="rId20" xr:uid="{829DF7AA-BC76-4789-8AE8-0EEA0CF17802}"/>
-    <hyperlink ref="AI18" r:id="rId21" xr:uid="{55524CD9-B9C4-4406-BE7D-F3548CE455F2}"/>
-    <hyperlink ref="AI26" r:id="rId22" xr:uid="{F328FC58-9E25-4752-8ECA-8FEB8BA61AB6}"/>
-    <hyperlink ref="AI27" r:id="rId23" xr:uid="{7248E569-AEBB-4D65-9CEC-5E5D9CFF5F47}"/>
+    <hyperlink ref="AI14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="AI15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="AI16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="AI19" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="AI20" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="AI21" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="AI18" r:id="rId19" xr:uid="{829DF7AA-BC76-4789-8AE8-0EEA0CF17802}"/>
+    <hyperlink ref="AI17" r:id="rId20" xr:uid="{55524CD9-B9C4-4406-BE7D-F3548CE455F2}"/>
+    <hyperlink ref="AI25" r:id="rId21" xr:uid="{F328FC58-9E25-4752-8ECA-8FEB8BA61AB6}"/>
+    <hyperlink ref="AI26" r:id="rId22" xr:uid="{7248E569-AEBB-4D65-9CEC-5E5D9CFF5F47}"/>
+    <hyperlink ref="AJ3" r:id="rId23" xr:uid="{0FBC6DB3-987E-4C3B-BFBC-F4792C4B7092}"/>
+    <hyperlink ref="AJ2" r:id="rId24" xr:uid="{B97B9B5F-4360-4811-9993-9233D232D765}"/>
+    <hyperlink ref="AI22" r:id="rId25" xr:uid="{9B17A0EA-D7B9-4FD6-BCE3-EEA920483C22}"/>
+    <hyperlink ref="AI23" r:id="rId26" xr:uid="{71DDA2D5-6C02-407E-ABE6-C652A68B8868}"/>
+    <hyperlink ref="AI24" r:id="rId27" xr:uid="{8D0C6649-5CDF-477D-994C-DE74B24B7101}"/>
+    <hyperlink ref="AI27" r:id="rId28" xr:uid="{09314B47-7F05-4CB4-ADC0-4DCE21AA7A2E}"/>
+    <hyperlink ref="AI28" r:id="rId29" xr:uid="{3FED30DA-11BF-4D61-A362-34E7B94726C4}"/>
+    <hyperlink ref="AI29" r:id="rId30" xr:uid="{232DED3F-713A-4942-989C-ECB22988A38F}"/>
+    <hyperlink ref="AI30" r:id="rId31" xr:uid="{B30B2579-96A4-403A-95B7-2C256E599F20}"/>
+    <hyperlink ref="AJ5" r:id="rId32" display="https://urcom.co.kr/2.png" xr:uid="{5729650C-CDDC-4B92-9B6D-42957DB08B92}"/>
+    <hyperlink ref="AJ7" r:id="rId33" display="https://urcom.co.kr/2.png" xr:uid="{40786A51-DA64-47B7-B8DC-A716349B6511}"/>
+    <hyperlink ref="AJ9" r:id="rId34" display="https://urcom.co.kr/2.png" xr:uid="{09DCAD67-4E09-4F52-B9AB-1B0E17CCB12D}"/>
+    <hyperlink ref="AJ11" r:id="rId35" display="https://urcom.co.kr/2.png" xr:uid="{E3C2CECD-45F0-4797-A707-2A541A466923}"/>
+    <hyperlink ref="AJ13" r:id="rId36" display="https://urcom.co.kr/2.png" xr:uid="{0E8A975F-A07A-4036-8B3A-BF91D472B690}"/>
+    <hyperlink ref="AJ15" r:id="rId37" display="https://urcom.co.kr/2.png" xr:uid="{B502E70F-5004-4CB4-9461-E1D242A661CE}"/>
+    <hyperlink ref="AJ17" r:id="rId38" display="https://urcom.co.kr/2.png" xr:uid="{0F2541DA-427C-4073-BFF6-9E799EEA2BB3}"/>
+    <hyperlink ref="AJ19" r:id="rId39" display="https://urcom.co.kr/2.png" xr:uid="{351A493F-C9CC-4DCF-9E30-5CB8E63E6127}"/>
+    <hyperlink ref="AJ21" r:id="rId40" display="https://urcom.co.kr/2.png" xr:uid="{3620A73E-0DCA-4B46-88B6-390FC6A0226D}"/>
+    <hyperlink ref="AJ23" r:id="rId41" display="https://urcom.co.kr/2.png" xr:uid="{3777FAEC-B210-4F56-8336-FF3C981CD229}"/>
+    <hyperlink ref="AJ25" r:id="rId42" display="https://urcom.co.kr/2.png" xr:uid="{A085D35F-E3DE-48C4-BEDC-08FEEFFF1687}"/>
+    <hyperlink ref="AJ27" r:id="rId43" display="https://urcom.co.kr/2.png" xr:uid="{CC077E28-CE32-41FD-B5A6-35F4EFE941CB}"/>
+    <hyperlink ref="AJ29" r:id="rId44" display="https://urcom.co.kr/2.png" xr:uid="{7D44728C-0C96-483E-84E5-73CB39820215}"/>
+    <hyperlink ref="AJ4" r:id="rId45" display="https://urcom.co.kr/1.png" xr:uid="{2223D4F5-0F45-4AF0-A9CA-05337E50263A}"/>
+    <hyperlink ref="AJ6" r:id="rId46" display="https://urcom.co.kr/1.png" xr:uid="{40D4CCDD-060D-49B2-9262-4774751A926B}"/>
+    <hyperlink ref="AJ8" r:id="rId47" display="https://urcom.co.kr/1.png" xr:uid="{A04CB34B-1070-41DC-A13F-3D903DC4F45F}"/>
+    <hyperlink ref="AJ10" r:id="rId48" display="https://urcom.co.kr/1.png" xr:uid="{BE2A9479-F858-44BB-B71E-1C58BE963FB1}"/>
+    <hyperlink ref="AJ12" r:id="rId49" display="https://urcom.co.kr/1.png" xr:uid="{508F38DB-77ED-48A4-B2DF-DFE4487BF184}"/>
+    <hyperlink ref="AJ14" r:id="rId50" display="https://urcom.co.kr/1.png" xr:uid="{1A9015B3-63BB-46A7-94F8-4079BF680B87}"/>
+    <hyperlink ref="AJ16" r:id="rId51" display="https://urcom.co.kr/1.png" xr:uid="{19153841-C3C6-4EF4-9222-F8242AB961AD}"/>
+    <hyperlink ref="AJ18" r:id="rId52" display="https://urcom.co.kr/1.png" xr:uid="{F9DF7002-E025-465F-A8ED-324845268B55}"/>
+    <hyperlink ref="AJ20" r:id="rId53" display="https://urcom.co.kr/1.png" xr:uid="{B9D48822-413C-4A21-B63E-CEDEBBA5C246}"/>
+    <hyperlink ref="AJ22" r:id="rId54" display="https://urcom.co.kr/1.png" xr:uid="{74C7057A-E24A-4123-91C1-FD80EF6728F8}"/>
+    <hyperlink ref="AJ24" r:id="rId55" display="https://urcom.co.kr/1.png" xr:uid="{FADD342A-3403-4B99-B58A-AF9B969B3E50}"/>
+    <hyperlink ref="AJ26" r:id="rId56" display="https://urcom.co.kr/1.png" xr:uid="{C9020D5C-3667-4EAD-B423-4DA0D5D6BF9D}"/>
+    <hyperlink ref="AJ28" r:id="rId57" display="https://urcom.co.kr/1.png" xr:uid="{C3872EA3-99E9-45EB-A7D2-E1126A215FB9}"/>
+    <hyperlink ref="AJ30" r:id="rId58" display="https://urcom.co.kr/1.png" xr:uid="{4D09C923-F4E2-4E3E-A9A9-58E7368F2719}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId24"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId59"/>
 </worksheet>
 </file>
 
